--- a/data/long_bre/P24_9-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_9-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>199,88%</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>174,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-31,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-58,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,34</t>
+          <t>-0,61; 9,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,39</t>
+          <t>-10,49; 4,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,19</t>
+          <t>-7,72; 6,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,96; 1191,22</t>
+          <t>-12,99; 1,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 110,84</t>
+          <t>-11,51; 17,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 227,91</t>
+          <t>-45,97; 1010,23</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-74,73; 119,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-67,53; 202,88</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; inf</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 5,54</t>
+          <t>-10,95; 5,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 11,77</t>
+          <t>-8,72; 11,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 16,69</t>
+          <t>-3,58; 15,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 6,45</t>
+          <t>-5,83; 22,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 15,07</t>
+          <t>-16,42; 22,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 22,57</t>
+          <t>-12,07; 7,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 15,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 20,01</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 34,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,33; 41,27</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-61,19%</t>
+          <t>-20,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-57,75%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-27,77%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,03</t>
+          <t>-8,45; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 9,14</t>
+          <t>-5,05; 8,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -0,05</t>
+          <t>-13,21; 1,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,87; 117,46</t>
+          <t>-17,74; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 324,49</t>
+          <t>-22,9; 9,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-88,06; 27,72</t>
+          <t>-71,9; 108,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-55,32; 267,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-89,59; 36,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-68,49; 92,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-73,71; 93,13</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>575,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>113,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 13,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 5,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 104,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 408,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>695,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-18,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>102,01%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>136,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>317,17%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 2,92</t>
+          <t>4,76; 14,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 7,0</t>
+          <t>-9,67; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 1,26</t>
+          <t>-0,26; 12,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 3,82</t>
+          <t>-0,63; 15,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 8,86</t>
+          <t>1,72; 18,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 1,31</t>
+          <t>83,06; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-72,02; 83,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 402,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 961,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-30,81; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>-15,09</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-16,45%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 4,53</t>
+          <t>-15,48; 1,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 11,54</t>
+          <t>-13,04; 5,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 5,51</t>
+          <t>-15,4; 0,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 76,43</t>
+          <t>-20,98; 0,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 396,18</t>
+          <t>-25,88; -2,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 201,05</t>
+          <t>-16,64; 2,46</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 7,17</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-16,74; 0,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-23,05; 0,74</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; -3,9</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>65,79%</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-59,81%</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>-23,52%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>85,99%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>111,84%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 6,29</t>
+          <t>-9,85; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,31; -4,43</t>
+          <t>-1,77; 12,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 6,33</t>
+          <t>-3,71; 7,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 331,03</t>
+          <t>-5,58; 10,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-77,43; -27,96</t>
+          <t>-4,11; 14,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 90,24</t>
+          <t>-65,9; 72,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 445,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-50,57; 300,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-43,26; 247,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-49,21; 809,0</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 25,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 16,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,89; 44,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 21,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-42,39%</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>44,69%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-58,36%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,4</t>
+          <t>-2,43; 5,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 4,5</t>
+          <t>-20,82; -4,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 4,24</t>
+          <t>-8,73; 6,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 6,49</t>
+          <t>-6,48; 6,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 67,02</t>
+          <t>-8,55; 7,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 40,91</t>
+          <t>-42,58; 274,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-76,84; -21,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-49,66; 91,84</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-41,08; 81,65</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-72,16; 176,66</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>109,71%</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-24,07%</t>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-7,05%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,89</t>
+          <t>-1,84; 13,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 6,53</t>
+          <t>4,5; 26,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 2,23</t>
+          <t>-7,31; 13,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 420,09</t>
+          <t>-13,79; 2,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 232,27</t>
+          <t>-16,52; 7,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 32,41</t>
+          <t>-2,05; 18,37</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 45,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 20,32</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 3,85</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; 10,54</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-46,18%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-20,37%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-16,03%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>70,16%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -0,77</t>
+          <t>-14,48; -0,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 1,62</t>
+          <t>-17,55; 4,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,77</t>
+          <t>-12,54; 4,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -0,94</t>
+          <t>-0,34; 11,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 1,98</t>
+          <t>-5,85; 15,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,46</t>
+          <t>-71,46; -1,2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-71,5; 60,98</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-55,13; 53,35</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 212,62</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-30,67; 138,16</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 9,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 213,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 173,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 132,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>120,04%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>106,11%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-22,97%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,26%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,75</t>
+          <t>-0,19; 8,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,07; 15,73</t>
+          <t>-2,49; 6,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,56</t>
+          <t>-7,64; 2,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 261,03</t>
+          <t>-5,05; 7,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 447,01</t>
+          <t>-8,78; 8,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 67,4</t>
+          <t>-10,33; 443,77</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-40,33; 229,43</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-57,12; 34,57</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-36,79; 103,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-55,21; 145,37</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 2,57</t>
+          <t>-14,47; -1,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 7,44</t>
+          <t>-12,17; 1,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 7,75</t>
+          <t>-8,63; 4,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 3,13</t>
+          <t>-13,9; 4,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 10,25</t>
+          <t>-12,46; 14,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 10,0</t>
+          <t>-15,83; -1,48</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 2,37</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 6,45</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-18,55; 7,39</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-16,3; 23,97</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>134,9%</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-17,06%</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>66,78%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>37,47%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,03; 13,33</t>
+          <t>-1,0; 9,34</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 5,83</t>
+          <t>-2,28; 9,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,81</t>
+          <t>-2,26; 9,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,43; 459,85</t>
+          <t>-4,33; 11,94</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 53,19</t>
+          <t>-14,92; 11,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 85,15</t>
+          <t>-18,48; 244,24</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-21,67; 138,27</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 128,37</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 84,63</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-54,95; 99,51</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>247,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1,06; 13,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 8,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1196,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 214,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 205,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-13,5</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>137,24%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>-64,02%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 10,25</t>
+          <t>-10,22; 7,65</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 23,91</t>
+          <t>1,5; 14,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 6,9</t>
+          <t>-5,49; 6,12</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 14,09</t>
+          <t>-12,85; 3,98</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 41,26</t>
+          <t>-24,45; -3,69</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 8,99</t>
+          <t>-73,02; 211,93</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 436,71</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-38,97; 75,71</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-72,34; 70,0</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-86,54; -25,87</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>17,74</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-9,79%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-6,08%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-0,04%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 7,71</t>
+          <t>-17,6; 2,89</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 10,2</t>
+          <t>-14,27; 6,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 10,17</t>
+          <t>-7,54; 7,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 128,41</t>
+          <t>-10,1; 12,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 227,48</t>
+          <t>4,01; 31,45</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 139,97</t>
+          <t>-19,76; 3,17</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-17,26; 9,78</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 9,35</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 19,23</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 65,67</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>129,54%</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>150,08%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-16,66%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-2,33%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-20,28%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,82</t>
+          <t>1,58; 14,48</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,31</t>
+          <t>-13,56; 5,67</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,51</t>
+          <t>-5,61; 4,92</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>34,11; 254,85</t>
+          <t>-7,42; 11,26</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 15,33</t>
+          <t>-14,96; 7,97</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 48,85</t>
+          <t>13,45; 461,56</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-56,87; 51,08</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-51,12; 96,51</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-38,63; 105,18</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-57,03; 62,14</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>274,42%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>31,03%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>-28,49%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>-23,57%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,86</t>
+          <t>2,43; 18,36</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,02</t>
+          <t>-19,74; 8,27</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,68</t>
+          <t>-4,02; 8,67</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 36,85</t>
+          <t>-13,94; 4,45</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 50,46</t>
+          <t>-9,16; 4,9</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 30,25</t>
+          <t>12,12; 1411,4</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-73,94; 160,55</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-38,42; 185,67</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>-85,33; 143,22</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 273,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-6,67</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-8,6</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 10,42</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 15,9</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; 5,36</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; 14,61</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-23,93; 4,15</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 13,52</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 24,12</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-18,88; 7,22</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 22,87</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-26,8; 4,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>111,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-20,91; 7,17</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 9,36</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 12,2</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 13,48</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 24,48</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-71,68; 105,37</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-49,92; 201,12</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-45,09; 163,9</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 112,11</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-15,86; 552,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>123,88%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-13,41%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>-7,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 7,18</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 1,76</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,53</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,9</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 3,24</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>28,29; 249,76</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-38,83; 20,01</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 50,91</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>-30,66; 39,27</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-39,87; 46,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-4,35</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-5,04%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; -0,41</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 5,05</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 2,05</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 2,92</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 4,91</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -0,48</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 6,69</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 2,56</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 3,98</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 6,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,83</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 4,34</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,23</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 6,57</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 7,28</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-31,05; 33,38</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-20,3; 52,29</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 35,88</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 55,1</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; 61,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_9-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_9-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -750,7 +750,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -864,7 +864,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1092,7 +1092,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1206,7 +1206,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1438,7 +1438,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1552,7 +1552,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1784,7 +1784,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1898,7 +1898,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2130,7 +2130,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2244,7 +2244,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2476,7 +2476,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2590,7 +2590,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2822,7 +2822,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2936,7 +2936,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
